--- a/part1.xlsx
+++ b/part1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawan/Downloads/Pomelo-QA-automation-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D2F0C74-C25C-A74A-91B1-A890362C266E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DC71B6-D756-EB41-A597-C7A3D3E36AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{E7765EDD-6AE9-444D-9B02-B381D2F00C0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{E7765EDD-6AE9-444D-9B02-B381D2F00C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="test case" sheetId="4" r:id="rId1"/>
@@ -210,42 +210,6 @@
 11.click confirm shopping</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.open pomelo website
-2.click login icon
-3.input username/email
-4.input password
-5.click login button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6.click cart icon
-7.click checkout button
-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.click checkbox shopping address and click 'save and next' button
-9.input paypal and click 'save and next' button 
-10.click payment
-11.click confirm shopping</t>
-    </r>
-  </si>
-  <si>
     <t>1.open pomelo website
 2.click login icon
 3.input username/email
@@ -581,41 +545,6 @@
 -address = yes</t>
   </si>
   <si>
-    <r>
-      <t>1.open pomelo website
-2.click register icon
-3.input information
-4.click register button
-5.click product
-6.click buy now button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.click checkbox shopping address and click 'save and next' button
-8.input paypal and click 'save and next' button 
-9.click payment
-10.click confirm shopping</t>
-    </r>
-  </si>
-  <si>
     <t>customer be able to proceed checkout.
 with the following conditions
 -not be a member
@@ -695,40 +624,6 @@
 9.click confirm shopping</t>
   </si>
   <si>
-    <r>
-      <t>1.open pomelo website
-2.click register icon
-3.click facebook button
-4.click product
-5.click buy now button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.click checkbox shopping address and click 'save and next' button
-7.input paypal and click 'save and next' button 
-8.click payment
-9.click confirm shopping</t>
-    </r>
-  </si>
-  <si>
     <t>1.open pomelo website
 2.click register icon
 3.click facebook button
@@ -855,40 +750,6 @@
 -memeber = gmail
 -payment = paypal
 -address = yes</t>
-  </si>
-  <si>
-    <r>
-      <t>1.open pomelo website
-2.click register icon
-3.click gmail button
-4.click product
-5.click buy now button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.click checkbox shopping address and click 'save and next' button
-7.input paypal and click 'save and next' button 
-8.click payment
-9.click confirm shopping</t>
-    </r>
   </si>
   <si>
     <t>customer be able to proceed checkout.
@@ -1471,22 +1332,61 @@
   <si>
     <t>1.display detail my tracking orders</t>
   </si>
+  <si>
+    <t>1.open pomelo website
+2.click login icon
+3.input username/email
+4.input password
+5.click login button
+6.click cart icon
+7.click checkout button
+8.click checkbox shopping address and click 'save and next' button
+9.input paypal and click 'save and next' button 
+10.click payment
+11.click confirm shopping</t>
+  </si>
+  <si>
+    <t>1.open pomelo website
+2.click register icon
+3.input information
+4.click register button
+5.click product
+6.click buy now button
+7.click checkbox shopping address and click 'save and next' button
+8.input paypal and click 'save and next' button 
+9.click payment
+10.click confirm shopping</t>
+  </si>
+  <si>
+    <t>1.open pomelo website
+2.click register icon
+3.click facebook button
+4.click product
+5.click buy now button
+6.click checkbox shopping address and click 'save and next' button
+7.input paypal and click 'save and next' button 
+8.click payment
+9.click confirm shopping</t>
+  </si>
+  <si>
+    <t>1.open pomelo website
+2.click register icon
+3.click gmail button
+4.click product
+5.click buy now button
+6.click checkbox shopping address and click 'save and next' button
+7.input paypal and click 'save and next' button 
+8.click payment
+9.click confirm shopping</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -1509,11 +1409,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="TH SarabunPSK"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1545,46 +1444,46 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1902,1597 +1801,1597 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304029A8-4942-4D41-BC45-6101C0940FAD}">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="161" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="206" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="199" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="191" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="267" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="C15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="176" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="163" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="D25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="350" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J31" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="32" spans="1:10" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="360" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="260" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="256" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="179" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="152" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="238" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="194" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="197" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="E66" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="14" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="14" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="14" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="14" customFormat="1" ht="260" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="E70" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="14" customFormat="1" ht="356" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="14" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="14" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="14" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="14" customFormat="1" ht="345" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="14" customFormat="1" ht="256" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="14" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="14" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="14" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="14" customFormat="1" ht="341" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="260" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="256" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="E82" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="14" customFormat="1" ht="362" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="14" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="14" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="14" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="14" customFormat="1" ht="260" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="14" customFormat="1" ht="256" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="14" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="14" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="14" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="14" customFormat="1" ht="260" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="14" customFormat="1" ht="256" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="14" customFormat="1" ht="254" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="14" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="14" customFormat="1" ht="248" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="14" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="13" t="s">
+      <c r="D83" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E81" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="14" customFormat="1" ht="260" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="14" customFormat="1" ht="256" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="15"/>
-    </row>
-    <row r="85" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="15"/>
-    </row>
-    <row r="87" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="15"/>
-    </row>
-    <row r="88" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="15"/>
-    </row>
-    <row r="89" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="15"/>
-    </row>
-    <row r="90" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="15"/>
-    </row>
-    <row r="91" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="15"/>
-    </row>
-    <row r="95" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="15"/>
+      <c r="E83" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="16"/>
+    </row>
+    <row r="90" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="16"/>
+    </row>
+    <row r="92" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="16"/>
+    </row>
+    <row r="93" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="16"/>
+    </row>
+    <row r="94" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="16"/>
+    </row>
+    <row r="95" spans="1:5" s="14" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3501,43 +3400,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF95A9-64FA-2544-9CF7-2FF1B6102E8D}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="37.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
